--- a/AutoTest/i2share_requests/config/zdq/APIAutoTest.xlsx
+++ b/AutoTest/i2share_requests/config/zdq/APIAutoTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -187,14 +187,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,12 +410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,148 +664,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1150,7 @@
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1455,8 +1442,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3"/>

--- a/AutoTest/i2share_requests/config/zdq/APIAutoTest.xlsx
+++ b/AutoTest/i2share_requests/config/zdq/APIAutoTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
   <si>
     <t>编号</t>
   </si>
@@ -162,10 +162,7 @@
     <t>/usernormal/add/</t>
   </si>
   <si>
-    <t xml:space="preserve">    AddUserSuccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    AddDemSuccess</t>
+    <t>AddUserSuccess</t>
   </si>
   <si>
     <t>反向用例</t>
@@ -174,7 +171,7 @@
     <t xml:space="preserve">    AddUserErrorUsernameIsNone</t>
   </si>
   <si>
-    <t xml:space="preserve">    AddUserErrorpwdIsNone</t>
+    <t>AddUserErrorpwdIsNone</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1148,10 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.1083333333333" style="1" customWidth="1"/>
@@ -1215,7 +1212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:14">
+    <row r="2" ht="57" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1251,7 +1248,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="56" spans="1:14">
+    <row r="3" ht="57" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1284,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" ht="56" spans="1:14">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1323,7 +1320,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" ht="56" spans="1:14">
+    <row r="5" ht="57" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1359,7 +1356,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="56" spans="1:14">
+    <row r="6" ht="57" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1395,7 +1392,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" ht="56" spans="1:14">
+    <row r="7" ht="57" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1442,11 +1439,11 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9"/>
     <col min="2" max="2" width="13.1083333333333" customWidth="1"/>
@@ -1507,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" spans="1:14">
+    <row r="2" s="2" customFormat="1" ht="28.5" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1536,14 +1533,14 @@
         <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28" spans="1:14">
+    <row r="3" s="2" customFormat="1" ht="42.75" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1554,7 +1551,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>25</v>
@@ -1569,17 +1566,17 @@
         <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="28" spans="1:14">
+    <row r="4" s="2" customFormat="1" ht="28.5" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1587,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
@@ -1605,10 +1602,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
